--- a/Keyboard/Keyboard_sample_cleaned.xlsx
+++ b/Keyboard/Keyboard_sample_cleaned.xlsx
@@ -9643,7 +9643,7 @@
     <t>612</t>
   </si>
   <si>
-    <t>Keyboards</t>
+    <t>Keyboard</t>
   </si>
 </sst>
 </file>
